--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t xml:space="preserve">Judul Buku</t>
   </si>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">Sinopsis</t>
   </si>
   <si>
-    <t xml:space="preserve">agustinus</t>
-  </si>
-  <si>
     <t xml:space="preserve">l</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
     <t xml:space="preserve">asda</t>
   </si>
   <si>
-    <t xml:space="preserve">sunitsuga</t>
-  </si>
-  <si>
     <t xml:space="preserve">fdsdfs4a</t>
   </si>
   <si>
@@ -90,9 +84,6 @@
     <t xml:space="preserve">asdasdasdasd</t>
   </si>
   <si>
-    <t xml:space="preserve">suga</t>
-  </si>
-  <si>
     <t xml:space="preserve">dsdsd</t>
   </si>
   <si>
@@ -106,9 +97,6 @@
   </si>
   <si>
     <t xml:space="preserve">asdsads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sukimasi</t>
   </si>
   <si>
     <t xml:space="preserve">0000-00-00</t>
@@ -123,7 +111,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,6 +134,12 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +183,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -210,7 +204,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -234,7 +232,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -246,7 +244,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.53"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.54"/>
@@ -285,17 +283,17 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+      <c r="A2" s="1" t="n">
+        <v>39101434372</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>33434</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -304,62 +302,62 @@
         <v>44166</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="1" t="n">
         <v>123</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="1" t="n">
+        <v>323434343234</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>123</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="1" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
@@ -368,47 +366,47 @@
         <v>44166</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>123</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="C5" s="4" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="H5" s="4" t="n">
+      <c r="A5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>34324341111</v>
+      </c>
+      <c r="H5" s="6" t="n">
         <v>34324341111</v>
       </c>
       <c r="I5" s="1" t="n">
         <v>122212</v>
       </c>
-      <c r="J5" s="4" t="n">
+      <c r="J5" s="6" t="n">
         <v>34324341111</v>
       </c>
     </row>

--- a/excel/import_data.xlsx
+++ b/excel/import_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t xml:space="preserve">Judul Buku</t>
   </si>
@@ -54,52 +54,58 @@
     <t xml:space="preserve">Sinopsis</t>
   </si>
   <si>
-    <t xml:space="preserve">l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tajur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">as</t>
+    <t xml:space="preserve">Kamu Dan Segala Kenangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Viesta Barsari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,3,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buku ini adalah sampel isi untuk menuliskan semua yang akan di guna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisah Kasih Di sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-12-01</t>
   </si>
   <si>
     <t xml:space="preserve">asd</t>
   </si>
   <si>
-    <t xml:space="preserve">asda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fdsdfs4a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsasasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdasdasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dsdsd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadasdasd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdsad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdsads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0000-00-00</t>
+    <t xml:space="preserve">TIK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Jaringan bagus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EWM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alumni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jomlo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT. Jomlo Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kas</t>
   </si>
 </sst>
 </file>
@@ -196,6 +202,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,11 +214,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -231,8 +237,8 @@
   </sheetPr>
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -244,9 +250,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="21.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="25.15"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="21.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="55.6"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="8.54"/>
   </cols>
   <sheetData>
@@ -283,131 +289,131 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>39101434372</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>33434</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>3212</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="n">
         <v>44166</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>32101371</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>123</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>323434343234</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>3201</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>30121013</v>
       </c>
       <c r="I3" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
+      <c r="J3" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
+      <c r="D4" s="1" t="n">
+        <v>1121</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="n">
+      <c r="F4" s="6" t="n">
         <v>44166</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
+      <c r="G4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>38300480</v>
       </c>
       <c r="I4" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>18</v>
+      <c r="J4" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="B5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="C5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="E5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="A5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="6" t="n">
-        <v>34324341111</v>
-      </c>
-      <c r="H5" s="6" t="n">
-        <v>34324341111</v>
+      <c r="D5" s="5" t="n">
+        <v>3111</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>43841</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>19377290</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>122212</v>
-      </c>
-      <c r="J5" s="6" t="n">
-        <v>34324341111</v>
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -428,7 +434,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -451,7 +457,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="69" zoomScaleNormal="69" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
